--- a/solicitantes.xlsx
+++ b/solicitantes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsi-Adan\Documents\GitHub\AFRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729B29E5-9009-46FB-BBC6-5EE54DEC756B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594CB193-2BA8-47AA-AA87-38A026A9742A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{788BA45F-CFC8-4167-8F28-A7056DBDCFE9}"/>
   </bookViews>
@@ -824,7 +824,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
